--- a/rtcp/음성_smae_early & regular type.pcap_RTCP jitter 분석.xlsx
+++ b/rtcp/음성_smae_early & regular type.pcap_RTCP jitter 분석.xlsx
@@ -161,9 +161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>317465</xdr:colOff>
+      <xdr:colOff>475429</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>24075</xdr:rowOff>
+      <xdr:rowOff>22071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -181,7 +181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192000" y="190500"/>
-          <a:ext cx="6413465" cy="6310575"/>
+          <a:ext cx="6571429" cy="6308571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -204,9 +204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>317465</xdr:colOff>
+      <xdr:colOff>464000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>24075</xdr:rowOff>
+      <xdr:rowOff>22071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,7 +224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192000" y="190500"/>
-          <a:ext cx="6413465" cy="6310575"/>
+          <a:ext cx="6560000" cy="6308571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,7 +873,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K8">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L8">
         <v>1.241130736600555</v>
@@ -961,7 +961,7 @@
         <v>0.01999999999999999</v>
       </c>
       <c r="K10">
-        <v>-1.907348631813299e-08</v>
+        <v>-1.907348631813299E-08</v>
       </c>
       <c r="L10">
         <v>1.149427139140197</v>
@@ -1005,7 +1005,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K11">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L11">
         <v>1.077589135036831</v>
@@ -1093,7 +1093,7 @@
         <v>0.01999999999999999</v>
       </c>
       <c r="K13">
-        <v>-1.907348631813299e-08</v>
+        <v>-1.907348631813299E-08</v>
       </c>
       <c r="L13">
         <v>1.005633524036354</v>
@@ -1137,7 +1137,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K14">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L14">
         <v>0.9427951378523789</v>
@@ -1225,7 +1225,7 @@
         <v>0.01999999999999996</v>
       </c>
       <c r="K16">
-        <v>-1.907348629037742e-08</v>
+        <v>-1.907348629037742E-08</v>
       </c>
       <c r="L16">
         <v>0.8872739961574067</v>
@@ -1313,7 +1313,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K18">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L18">
         <v>1.014260832234543</v>
@@ -1357,7 +1357,7 @@
         <v>0.01999999999999996</v>
       </c>
       <c r="K19">
-        <v>-1.907348629037742e-08</v>
+        <v>-1.907348629037742E-08</v>
       </c>
       <c r="L19">
         <v>0.9508707223127771</v>
@@ -1445,7 +1445,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K21">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L21">
         <v>0.8943856476506763</v>
@@ -1533,7 +1533,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K23">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L23">
         <v>0.8446707133053462</v>
@@ -1621,7 +1621,7 @@
         <v>0.01999999999999996</v>
       </c>
       <c r="K25">
-        <v>-1.907348629037742e-08</v>
+        <v>-1.907348629037742E-08</v>
       </c>
       <c r="L25">
         <v>0.8009200674364123</v>
@@ -1709,7 +1709,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K27">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L27">
         <v>0.7625930798882462</v>
@@ -1841,7 +1841,7 @@
         <v>0.01999999999999991</v>
       </c>
       <c r="K30">
-        <v>-1.907348623486627e-08</v>
+        <v>-1.907348623486627E-08</v>
       </c>
       <c r="L30">
         <v>0.9067799603827307</v>
@@ -1929,7 +1929,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K32">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L32">
         <v>0.9141117458832022</v>
@@ -2149,7 +2149,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K37">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L37">
         <v>1.181037743040319</v>
@@ -2193,7 +2193,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K38">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L38">
         <v>1.107224076193196</v>
@@ -2281,7 +2281,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K40">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L40">
         <v>1.031748255366943</v>
@@ -2369,7 +2369,7 @@
         <v>0.01999999999999991</v>
       </c>
       <c r="K42">
-        <v>-1.907348623486627e-08</v>
+        <v>-1.907348623486627E-08</v>
       </c>
       <c r="L42">
         <v>0.965343688388984</v>
@@ -2413,7 +2413,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K43">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L43">
         <v>0.9050108999575691</v>
@@ -2589,7 +2589,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K47">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L47">
         <v>1.018575898853183</v>
@@ -2677,7 +2677,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K49">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L49">
         <v>0.9538223012763025</v>
@@ -2853,7 +2853,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K53">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L53">
         <v>1.187643700141336</v>
@@ -2985,7 +2985,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K56">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L56">
         <v>1.09217079979204</v>
@@ -3117,7 +3117,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K59">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L59">
         <v>1.013454659585676</v>
@@ -3293,7 +3293,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K63">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L63">
         <v>1.153902193214039</v>
@@ -3381,7 +3381,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K65">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L65">
         <v>1.072773944154793</v>
@@ -3425,7 +3425,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K66">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L66">
         <v>1.005726764738015</v>
@@ -3513,7 +3513,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K68">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L68">
         <v>0.9424732376409102</v>
@@ -3601,7 +3601,7 @@
         <v>0.0199999999999998</v>
       </c>
       <c r="K70">
-        <v>2.193450929777185e-07</v>
+        <v>2.193450929777185E-07</v>
       </c>
       <c r="L70">
         <v>0.8870035930250885</v>
@@ -3645,7 +3645,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K71">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L71">
         <v>0.831567060553917</v>
@@ -3821,7 +3821,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K75">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L75">
         <v>1.013398352561836</v>
@@ -3865,7 +3865,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K76">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L76">
         <v>0.9500621476196179</v>
@@ -3953,7 +3953,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K78">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L78">
         <v>0.8936176540815712</v>
@@ -4085,7 +4085,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K81">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L81">
         <v>0.9048202203600801</v>
@@ -4173,7 +4173,7 @@
         <v>0.0199999999999998</v>
       </c>
       <c r="K83">
-        <v>2.193450929777185e-07</v>
+        <v>2.193450929777185E-07</v>
       </c>
       <c r="L83">
         <v>0.8539101208056088</v>
@@ -4393,7 +4393,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K88">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L88">
         <v>1.721688037011486</v>
@@ -4437,7 +4437,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K89">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L89">
         <v>1.614083726791165</v>
@@ -4525,7 +4525,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K91">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L91">
         <v>1.477231823013532</v>
@@ -4745,7 +4745,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K96">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L96">
         <v>1.92170193774395</v>
@@ -4877,7 +4877,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K99">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L99">
         <v>1.916632839098417</v>
@@ -4965,7 +4965,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K101">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L101">
         <v>1.743200008106805</v>
@@ -5053,7 +5053,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K103">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L103">
         <v>1.590711476775388</v>
@@ -5097,7 +5097,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K104">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L104">
         <v>1.491293201569823</v>
@@ -5185,7 +5185,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K106">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L106">
         <v>1.369240613762616</v>
@@ -5273,7 +5273,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K108">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L108">
         <v>1.262092107194543</v>
@@ -5405,7 +5405,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K111">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L111">
         <v>1.373131086631559</v>
@@ -5493,7 +5493,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K113">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L113">
         <v>1.26551292097773</v>
@@ -5581,7 +5581,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K115">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L115">
         <v>1.170869310353376</v>
@@ -5757,7 +5757,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K119">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L119">
         <v>1.814771269417374</v>
@@ -5977,7 +5977,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K124">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L124">
         <v>2.448457452562549</v>
@@ -6065,7 +6065,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K126">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L126">
         <v>2.210623984784264</v>
@@ -6153,7 +6153,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K128">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L128">
         <v>2.001533331277061</v>
@@ -6197,7 +6197,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K129">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L129">
         <v>1.876438690165141</v>
@@ -6505,7 +6505,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K136">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L136">
         <v>2.703453896405124</v>
@@ -6549,7 +6549,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K137">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L137">
         <v>2.534489219972701</v>
@@ -6637,7 +6637,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K139">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L139">
         <v>2.286237842859566</v>
@@ -6725,7 +6725,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K141">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L141">
         <v>2.067992276589275</v>
@@ -6813,7 +6813,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K143">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L143">
         <v>1.876105035166431</v>
@@ -6857,7 +6857,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K144">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L144">
         <v>1.758849662561426</v>
@@ -6945,7 +6945,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K146">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L146">
         <v>1.60452338810359</v>
@@ -6989,7 +6989,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K147">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L147">
         <v>1.504241868440013</v>
@@ -7095,7 +7095,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K149">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L149">
         <v>1.556531721071547</v>
@@ -7183,7 +7183,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K151">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L151">
         <v>1.426704884841001</v>
@@ -7227,7 +7227,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K152">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L152">
         <v>1.337537021631335</v>
@@ -7315,7 +7315,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K154">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L154">
         <v>1.234173195431651</v>
@@ -7491,7 +7491,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K158">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L158">
         <v>1.1699968622125</v>
@@ -7667,7 +7667,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K162">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L162">
         <v>1.27482731845792</v>
@@ -7755,7 +7755,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K164">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L164">
         <v>1.179043275538244</v>
@@ -7799,7 +7799,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K165">
-        <v>2.193450927556739e-07</v>
+        <v>2.193450927556739E-07</v>
       </c>
       <c r="L165">
         <v>1.105366779885401</v>
@@ -7887,7 +7887,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K167">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L167">
         <v>1.030047469704042</v>
@@ -7975,7 +7975,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K169">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L169">
         <v>0.963960615948911</v>
@@ -8107,7 +8107,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K172">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L172">
         <v>1.127465210866348</v>
@@ -8195,7 +8195,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K174">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L174">
         <v>1.049595647355963</v>
@@ -8239,7 +8239,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K175">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L175">
         <v>0.983997111489112</v>
@@ -8371,7 +8371,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K178">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L178">
         <v>0.9242629152074735</v>
@@ -8415,7 +8415,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K179">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L179">
         <v>0.8664976750999029</v>
@@ -8503,7 +8503,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K181">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L181">
         <v>0.8202156792851167</v>
@@ -8547,7 +8547,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K182">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L182">
         <v>0.7689533914226936</v>
@@ -8635,7 +8635,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K184">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L184">
         <v>0.9102681132294241</v>
@@ -8723,7 +8723,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K186">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L186">
         <v>0.8586997607610105</v>
@@ -8811,7 +8811,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K188">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L188">
         <v>0.8133061642812227</v>
@@ -8899,7 +8899,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K190">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L190">
         <v>0.7733675391093275</v>
@@ -9447,7 +9447,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K12">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L12">
         <v>1.927221396780568</v>
@@ -9491,7 +9491,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K13">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L13">
         <v>1.806771251574679</v>
@@ -9535,7 +9535,7 @@
         <v>0.01999999999999991</v>
       </c>
       <c r="K14">
-        <v>-1.907348623486627e-08</v>
+        <v>-1.907348623486627E-08</v>
       </c>
       <c r="L14">
         <v>1.693849240444151</v>
@@ -9579,7 +9579,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K15">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L15">
         <v>1.587984855009288</v>
@@ -9623,7 +9623,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K16">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L16">
         <v>1.488736993664104</v>
@@ -9799,7 +9799,7 @@
         <v>0.01999999999999991</v>
       </c>
       <c r="K20">
-        <v>-1.907348623486627e-08</v>
+        <v>-1.907348623486627E-08</v>
       </c>
       <c r="L20">
         <v>1.545807583018669</v>
@@ -9931,7 +9931,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K23">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L23">
         <v>1.387359956530488</v>
@@ -10063,7 +10063,7 @@
         <v>0.01999999999999991</v>
       </c>
       <c r="K26">
-        <v>-1.907348623486627e-08</v>
+        <v>-1.907348623486627E-08</v>
       </c>
       <c r="L26">
         <v>1.256789165549866</v>
@@ -10151,7 +10151,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K28">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L28">
         <v>1.573399771424062</v>
@@ -10415,7 +10415,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="K34">
-        <v>8.583068855649856e-08</v>
+        <v>8.583068855649856E-08</v>
       </c>
       <c r="L34">
         <v>3.875155289409443</v>
@@ -10547,7 +10547,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="K37">
-        <v>8.583068855649856e-08</v>
+        <v>8.583068855649856E-08</v>
       </c>
       <c r="L37">
         <v>4.159899370401115</v>
@@ -10767,7 +10767,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K42">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L42">
         <v>3.724988850039225</v>
@@ -10811,7 +10811,7 @@
         <v>0.05999999999999983</v>
       </c>
       <c r="K43">
-        <v>-5.72204588156211e-08</v>
+        <v>-5.72204588156211E-08</v>
       </c>
       <c r="L43">
         <v>3.492180623190449</v>
@@ -11515,7 +11515,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K59">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L59">
         <v>2.508869644672736</v>
@@ -11559,7 +11559,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K60">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L60">
         <v>2.352066483973587</v>
@@ -11867,7 +11867,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K67">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L67">
         <v>3.2822425644664</v>
@@ -12043,7 +12043,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K71">
-        <v>-1.907348634588857e-08</v>
+        <v>-1.907348634588857E-08</v>
       </c>
       <c r="L71">
         <v>4.286339479890665</v>
@@ -12439,7 +12439,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K80">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L80">
         <v>5.14021823818729</v>
@@ -12703,7 +12703,7 @@
         <v>0.02000000000000046</v>
       </c>
       <c r="K86">
-        <v>-1.907348678997778e-08</v>
+        <v>-1.907348678997778E-08</v>
       </c>
       <c r="L86">
         <v>5.134406422144646</v>
@@ -12747,7 +12747,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K87">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L87">
         <v>4.813507212853474</v>
@@ -13011,7 +13011,7 @@
         <v>0.02000000000000046</v>
       </c>
       <c r="K93">
-        <v>-1.907348678997778e-08</v>
+        <v>-1.907348678997778E-08</v>
       </c>
       <c r="L93">
         <v>4.26722964044357</v>
@@ -13099,7 +13099,7 @@
         <v>0.02000000000000046</v>
       </c>
       <c r="K95">
-        <v>-1.907348678997778e-08</v>
+        <v>-1.907348678997778E-08</v>
       </c>
       <c r="L95">
         <v>3.867687851853705</v>
@@ -13803,7 +13803,7 @@
         <v>0.02000000000000046</v>
       </c>
       <c r="K111">
-        <v>-1.907348678997778e-08</v>
+        <v>-1.907348678997778E-08</v>
       </c>
       <c r="L111">
         <v>6.509562210579257</v>
@@ -14111,7 +14111,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K118">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L118">
         <v>5.426079027707109</v>
@@ -14155,7 +14155,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K119">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L119">
         <v>5.086950280568284</v>
@@ -14199,7 +14199,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K120">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L120">
         <v>4.769017080125635</v>
@@ -14243,7 +14243,7 @@
         <v>0.02000000000000135</v>
       </c>
       <c r="K121">
-        <v>-1.90734876781562e-08</v>
+        <v>-1.90734876781562E-08</v>
       </c>
       <c r="L121">
         <v>4.470954704710763</v>
@@ -14287,7 +14287,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K122">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L122">
         <v>4.19152122775921</v>
@@ -14331,7 +14331,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K123">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L123">
         <v>3.929552343117128</v>
@@ -14419,7 +14419,7 @@
         <v>0.02000000000000135</v>
       </c>
       <c r="K125">
-        <v>-1.90734876781562e-08</v>
+        <v>-1.90734876781562E-08</v>
       </c>
       <c r="L125">
         <v>3.922522002796517</v>
@@ -14947,7 +14947,7 @@
         <v>0.02000000000000135</v>
       </c>
       <c r="K137">
-        <v>-1.90734876781562e-08</v>
+        <v>-1.90734876781562E-08</v>
       </c>
       <c r="L137">
         <v>8.430810595168593</v>
@@ -15343,7 +15343,7 @@
         <v>0.02000000000000135</v>
       </c>
       <c r="K146">
-        <v>-1.90734876781562e-08</v>
+        <v>-1.90734876781562E-08</v>
       </c>
       <c r="L146">
         <v>6.636836312900624</v>
@@ -15651,7 +15651,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K153">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L153">
         <v>5.569353930763133</v>
@@ -15695,7 +15695,7 @@
         <v>0.0600000000000005</v>
       </c>
       <c r="K154">
-        <v>-5.722045948175492e-08</v>
+        <v>-5.722045948175492E-08</v>
       </c>
       <c r="L154">
         <v>5.221272886369155</v>
@@ -15827,7 +15827,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K157">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L157">
         <v>4.756206163107144</v>
@@ -15871,7 +15871,7 @@
         <v>0.02000000000000135</v>
       </c>
       <c r="K158">
-        <v>-1.90734876781562e-08</v>
+        <v>-1.90734876781562E-08</v>
       </c>
       <c r="L158">
         <v>4.458944470005927</v>
@@ -15915,7 +15915,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K159">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L159">
         <v>4.180261632723426</v>
@@ -15959,7 +15959,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K160">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L160">
         <v>3.918996472771081</v>
@@ -16003,7 +16003,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K161">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L161">
         <v>3.674060385315757</v>
@@ -16047,7 +16047,7 @@
         <v>0.02000000000000135</v>
       </c>
       <c r="K162">
-        <v>-1.90734876781562e-08</v>
+        <v>-1.90734876781562E-08</v>
       </c>
       <c r="L162">
         <v>3.444432803326503</v>
@@ -16505,7 +16505,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K172">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L172">
         <v>5.004524268883488</v>
@@ -16549,7 +16549,7 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="K173">
-        <v>1.049041742362533e-07</v>
+        <v>1.049041742362533E-07</v>
       </c>
       <c r="L173">
         <v>4.691748058589161</v>
@@ -16725,7 +16725,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K177">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L177">
         <v>4.376597758409333</v>
@@ -16769,7 +16769,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K178">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L178">
         <v>4.103061590601619</v>
@@ -16813,7 +16813,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K179">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L179">
         <v>3.846621433281886</v>
@@ -16945,7 +16945,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K182">
-        <v>2.193450931997631e-07</v>
+        <v>2.193450931997631E-07</v>
       </c>
       <c r="L182">
         <v>3.396593563161795</v>
@@ -17077,7 +17077,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K185">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L185">
         <v>3.24184339279077</v>
@@ -17121,7 +17121,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K186">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L186">
         <v>3.039233545159368</v>
@@ -17253,7 +17253,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K189">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L189">
         <v>2.735088697923449</v>
@@ -17297,7 +17297,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K190">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L190">
         <v>2.564151018721255</v>
@@ -17429,7 +17429,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K193">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L193">
         <v>3.021114052458897</v>
@@ -17561,7 +17561,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K196">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L196">
         <v>3.071594014592699</v>
@@ -18327,7 +18327,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K213">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L213">
         <v>5.186188659001313</v>
@@ -19093,7 +19093,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K230">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L230">
         <v>114.9617463382205</v>
@@ -19137,7 +19137,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K231">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L231">
         <v>107.7766467288249</v>
@@ -19269,7 +19269,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K234">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L234">
         <v>89.41318733177485</v>
@@ -19313,7 +19313,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K235">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L235">
         <v>83.82487266028208</v>
@@ -19357,7 +19357,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K236">
-        <v>8.583069188716763e-08</v>
+        <v>8.583069188716763E-08</v>
       </c>
       <c r="L236">
         <v>78.58582348343269</v>
@@ -19445,7 +19445,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K238">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L238">
         <v>69.12823110862405</v>
@@ -19753,7 +19753,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K245">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L245">
         <v>44.3014883641865</v>
@@ -20061,7 +20061,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K252">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L252">
         <v>28.58681318234606</v>
@@ -20105,7 +20105,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K253">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L253">
         <v>26.8001385505423</v>
@@ -20149,7 +20149,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K254">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L254">
         <v>25.12513108322627</v>
@@ -20325,7 +20325,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K258">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L258">
         <v>19.62852394081628</v>
@@ -20369,7 +20369,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K259">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L259">
         <v>18.40174238660814</v>
@@ -20545,7 +20545,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K263">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L263">
         <v>15.01371463672679</v>
@@ -20589,7 +20589,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K264">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L264">
         <v>14.07535866402423</v>
@@ -20633,7 +20633,7 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="K265">
-        <v>-5.722046125811175e-08</v>
+        <v>-5.722046125811175E-08</v>
       </c>
       <c r="L265">
         <v>13.19565232380154</v>
@@ -20739,7 +20739,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K267">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L267">
         <v>12.18367857669878</v>
@@ -20783,7 +20783,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K268">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L268">
         <v>11.42220820239828</v>
@@ -20915,7 +20915,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K271">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L271">
         <v>10.31994552924955</v>
@@ -21003,7 +21003,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K273">
-        <v>8.583069188716763e-08</v>
+        <v>8.583069188716763E-08</v>
       </c>
       <c r="L273">
         <v>9.128920401400661</v>
@@ -21135,7 +21135,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K276">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L276">
         <v>8.375341466398559</v>
@@ -21901,7 +21901,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K293">
-        <v>2.193450931997631e-07</v>
+        <v>2.193450931997631E-07</v>
       </c>
       <c r="L293">
         <v>8.424553964392246</v>
@@ -22253,7 +22253,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K301">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L301">
         <v>6.976493086875537</v>
@@ -22297,7 +22297,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K302">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L302">
         <v>6.540463461038685</v>
@@ -22341,7 +22341,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K303">
-        <v>-1.907348945451304e-08</v>
+        <v>-1.907348945451304E-08</v>
       </c>
       <c r="L303">
         <v>6.131685686816859</v>
@@ -23089,7 +23089,7 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="K320">
-        <v>-5.722046125811175e-08</v>
+        <v>-5.722046125811175E-08</v>
       </c>
       <c r="L320">
         <v>6.835376622144559</v>
@@ -23309,7 +23309,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K325">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L325">
         <v>6.061803744562647</v>
@@ -23459,7 +23459,7 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="K328">
-        <v>1.621246354943651e-07</v>
+        <v>1.621246354943651E-07</v>
       </c>
       <c r="L328">
         <v>5.95796763920178</v>
@@ -23503,7 +23503,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K329">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L329">
         <v>5.585595853844537</v>
@@ -23679,7 +23679,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K333">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L333">
         <v>6.193691231758999</v>
@@ -23811,7 +23811,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K336">
-        <v>-1.907348590179936e-08</v>
+        <v>-1.907348590179936E-08</v>
       </c>
       <c r="L336">
         <v>5.271845518724573</v>
@@ -24031,7 +24031,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K341">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L341">
         <v>4.203425901622513</v>
@@ -24075,7 +24075,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K342">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L342">
         <v>3.940717147189127</v>
@@ -24119,7 +24119,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K343">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L343">
         <v>3.694427689907827</v>
@@ -24207,7 +24207,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K345">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L345">
         <v>3.305715535241656</v>
@@ -24251,7 +24251,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K346">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L346">
         <v>3.099113678707073</v>
@@ -24295,7 +24295,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K347">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L347">
         <v>2.905424438205902</v>
@@ -24383,7 +24383,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K349">
-        <v>-1.525878872143949e-07</v>
+        <v>-1.525878872143949E-07</v>
       </c>
       <c r="L349">
         <v>2.612259557605118</v>
@@ -24427,7 +24427,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K350">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L350">
         <v>2.448998699672819</v>
@@ -24471,7 +24471,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K351">
-        <v>8.583068833445395e-08</v>
+        <v>8.583068833445395E-08</v>
       </c>
       <c r="L351">
         <v>2.295941645361289</v>
@@ -24515,7 +24515,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K352">
-        <v>-1.525878907671085e-07</v>
+        <v>-1.525878907671085E-07</v>
       </c>
       <c r="L352">
         <v>2.152454829269381</v>
